--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/NEBRASKA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/NEBRASKA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D819"/>
+  <dimension ref="A1:D813"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C9">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C24">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C27">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C37">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C38">
@@ -999,7 +999,7 @@
         <v>37</v>
       </c>
       <c r="D47">
-        <v>0.009376583882412569</v>
+        <v>0.009376583882412567</v>
       </c>
     </row>
     <row r="48">
@@ -1231,7 +1231,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C65">
@@ -1257,7 +1257,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C67">
@@ -1491,7 +1491,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C85">
@@ -1639,7 +1639,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C96">
@@ -1761,7 +1761,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1818,7 +1818,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C109">
@@ -2174,7 +2174,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C136">
@@ -2200,7 +2200,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C138">
@@ -2278,7 +2278,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C144">
@@ -2291,7 +2291,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C145">
@@ -2395,12 +2395,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C153">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C154">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C155">
@@ -2439,7 +2439,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C156">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C160">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C162">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C166">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C169">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C174">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C179">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C186">
@@ -2881,7 +2881,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C190">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C191">
@@ -3016,7 +3016,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C200">
@@ -3029,7 +3029,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C201">
@@ -3094,7 +3094,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C206">
@@ -3146,7 +3146,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C210">
@@ -3237,7 +3237,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C217">
@@ -3289,7 +3289,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C221">
@@ -3315,7 +3315,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C223">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C225">
@@ -3354,7 +3354,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C226">
@@ -3367,7 +3367,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C227">
@@ -3419,7 +3419,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C231">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C236">
@@ -3502,7 +3502,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C237">
@@ -3515,7 +3515,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C238">
@@ -3567,7 +3567,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C242">
@@ -3580,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C243">
@@ -3619,7 +3619,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C246">
@@ -3632,7 +3632,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C247">
@@ -3645,7 +3645,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C248">
@@ -3697,7 +3697,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C252">
@@ -3710,7 +3710,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C253">
@@ -3762,7 +3762,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C257">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C262">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C263">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C264">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C266">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C278">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C280">
@@ -4087,7 +4087,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C282">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C283">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C286">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C287">
@@ -4261,7 +4261,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C295">
@@ -4274,7 +4274,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C296">
@@ -4300,7 +4300,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C298">
@@ -4365,7 +4365,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C303">
@@ -4378,7 +4378,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C304">
@@ -4404,7 +4404,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C306">
@@ -4443,7 +4443,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C309">
@@ -4456,7 +4456,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C310">
@@ -4469,7 +4469,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C311">
@@ -4521,7 +4521,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C315">
@@ -4534,7 +4534,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C316">
@@ -4547,7 +4547,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C317">
@@ -4604,7 +4604,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C321">
@@ -4643,7 +4643,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C324">
@@ -4669,7 +4669,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C326">
@@ -4682,7 +4682,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C327">
@@ -4812,7 +4812,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C337">
@@ -4825,7 +4825,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C338">
@@ -4916,7 +4916,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C345">
@@ -4968,7 +4968,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C349">
@@ -4981,7 +4981,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C350">
@@ -5033,7 +5033,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C354">
@@ -5111,7 +5111,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C360">
@@ -5124,7 +5124,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C361">
@@ -5202,7 +5202,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C367">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C368">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C371">
@@ -5319,7 +5319,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C376">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C378">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C379">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C386">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C387">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C388">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C390">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C391">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C394">
@@ -5566,7 +5566,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C395">
@@ -5599,7 +5599,7 @@
         <v>358</v>
       </c>
       <c r="D397">
-        <v>0.09072478459199189</v>
+        <v>0.09072478459199187</v>
       </c>
     </row>
     <row r="398">
@@ -6247,7 +6247,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C447">
@@ -6512,7 +6512,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C467">
@@ -6590,7 +6590,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C473">
@@ -6616,7 +6616,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C475">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C482">
@@ -6725,7 +6725,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C483">
@@ -6990,7 +6990,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C503">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C506">
@@ -7073,7 +7073,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C509">
@@ -7086,7 +7086,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C510">
@@ -7099,7 +7099,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C511">
@@ -7125,7 +7125,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C513">
@@ -7151,7 +7151,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C515">
@@ -7177,7 +7177,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C517">
@@ -7190,7 +7190,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C518">
@@ -7203,7 +7203,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C519">
@@ -7255,7 +7255,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C523">
@@ -7489,7 +7489,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C541">
@@ -7502,7 +7502,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C542">
@@ -7619,7 +7619,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C551">
@@ -7879,7 +7879,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C571">
@@ -7892,7 +7892,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C572">
@@ -7918,7 +7918,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C574">
@@ -8144,7 +8144,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C591">
@@ -8365,7 +8365,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C608">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C616">
@@ -8500,7 +8500,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C618">
@@ -8539,7 +8539,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C621">
@@ -8578,7 +8578,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C624">
@@ -8604,7 +8604,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C626">
@@ -8744,7 +8744,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C636">
@@ -8796,7 +8796,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C640">
@@ -8848,7 +8848,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C644">
@@ -8874,7 +8874,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C646">
@@ -8887,7 +8887,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C647">
@@ -8900,7 +8900,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C648">
@@ -8913,7 +8913,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C649">
@@ -9801,7 +9801,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C715">
@@ -9879,7 +9879,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C721">
@@ -9983,7 +9983,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C729">
@@ -10087,7 +10087,7 @@
     <row r="737">
       <c r="B737" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C737">
@@ -10100,7 +10100,7 @@
     <row r="738">
       <c r="B738" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C738">
@@ -10191,7 +10191,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C745">
@@ -10204,7 +10204,7 @@
     <row r="746">
       <c r="B746" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C746">
@@ -10360,7 +10360,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C758">
@@ -10542,7 +10542,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C772">
@@ -10864,7 +10864,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C796">
@@ -10877,7 +10877,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C797">
@@ -11007,7 +11007,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C807">
@@ -11093,41 +11093,6 @@
       </c>
       <c r="D813">
         <v>1</v>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/NEBRASKA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/NEBRASKA_2018.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Asientos</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>El Llano</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Pabellón De Arteaga</t>
@@ -463,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -476,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>San José De Gracia</t>
@@ -489,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -520,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -533,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Tecate</t>
@@ -546,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -559,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Escárcega</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Total</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -704,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -717,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Cintalapa</t>
@@ -730,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -743,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -756,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -769,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Jiquipilas</t>
@@ -782,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>La Libertad</t>
@@ -795,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Larráinzar</t>
@@ -808,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Mazatán</t>
@@ -821,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -834,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Ostuacán</t>
@@ -847,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -860,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Salto De Agua</t>
@@ -873,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -886,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -899,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -925,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -938,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -951,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Tuzantán</t>
@@ -964,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -977,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -990,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1021,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Allende</t>
@@ -1034,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Ascensión</t>
@@ -1047,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Bachíniva</t>
@@ -1060,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Balleza</t>
@@ -1073,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Bocoyna</t>
@@ -1086,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -1099,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Carichí</t>
@@ -1112,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Casas Grandes</t>
@@ -1125,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Chihuahua</t>
@@ -1138,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1151,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Cusihuiriachi</t>
@@ -1164,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -1177,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -1190,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Gran Morelos</t>
@@ -1203,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Guachochi</t>
@@ -1216,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -1229,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Guadalupe Y Calvo</t>
@@ -1242,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Guerrero</t>
@@ -1255,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -1268,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -1281,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -1294,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -1307,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Julimes</t>
@@ -1320,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>La Cruz</t>
@@ -1333,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -1346,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Matachí</t>
@@ -1359,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Meoqui</t>
@@ -1372,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Namiquipa</t>
@@ -1385,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -1398,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Ojinaga</t>
@@ -1411,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Rosales</t>
@@ -1424,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -1437,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Santa Bárbara</t>
@@ -1450,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Satevó</t>
@@ -1463,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Temósachic</t>
@@ -1476,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Urique</t>
@@ -1489,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Valle De Zaragoza</t>
@@ -1502,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1533,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Acuña</t>
@@ -1546,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -1559,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>General Cepeda</t>
@@ -1572,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -1585,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -1598,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Múzquiz</t>
@@ -1611,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -1624,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -1637,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>San Juan De Sabinas</t>
@@ -1650,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1663,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Torreón</t>
@@ -1676,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1707,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Coquimatlán</t>
@@ -1720,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -1733,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Tecomán</t>
@@ -1746,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1777,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1790,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1803,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1816,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -1829,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1842,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1855,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1868,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1881,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>La Magdalena Contreras</t>
@@ -1894,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1907,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -1920,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1933,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1946,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1959,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -1972,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2003,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Cuencamé</t>
@@ -2016,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -2029,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -2042,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -2055,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>General Simón Bolívar</t>
@@ -2068,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -2081,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Guanaceví</t>
@@ -2094,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -2107,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Indé</t>
@@ -2120,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -2133,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Mapimí</t>
@@ -2146,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -2159,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Nazas</t>
@@ -2172,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Nombre De Dios</t>
@@ -2185,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -2198,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Pánuco De Coronado</t>
@@ -2211,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Peñón Blanco</t>
@@ -2224,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Poanas</t>
@@ -2237,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Rodeo</t>
@@ -2250,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>San Bernardo</t>
@@ -2263,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>San Dimas</t>
@@ -2276,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>San Juan De Guadalupe</t>
@@ -2289,6 +2954,11 @@
       </c>
     </row>
     <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B145" t="inlineStr">
         <is>
           <t>San Luis Del Cordero</t>
@@ -2302,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Santa Clara</t>
@@ -2315,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Santiago Papasquiaro</t>
@@ -2328,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Tepehuanes</t>
@@ -2341,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Tlahualilo</t>
@@ -2354,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Topia</t>
@@ -2367,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -2380,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2411,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Almoloya De Alquisiras</t>
@@ -2424,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Almoloya De Juárez</t>
@@ -2437,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Almoloya Del Río</t>
@@ -2450,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Amanalco</t>
@@ -2463,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Atenco</t>
@@ -2476,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Atizapán</t>
@@ -2489,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Atizapán De Zaragoza</t>
@@ -2502,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -2515,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Chapa De Mota</t>
@@ -2528,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Chiconcuac</t>
@@ -2541,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -2554,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -2567,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -2580,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Ecatzingo</t>
@@ -2593,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -2606,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -2619,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -2632,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Jilotepec</t>
@@ -2645,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Joquicingo</t>
@@ -2658,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -2671,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -2684,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -2697,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Ocuilan</t>
@@ -2710,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Otzoloapan</t>
@@ -2723,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -2736,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -2749,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -2762,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -2775,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Temascalapa</t>
@@ -2788,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -2801,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -2814,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -2827,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -2840,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -2853,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -2866,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Tonatico</t>
@@ -2879,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Valle De Bravo</t>
@@ -2892,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Villa Del Carbón</t>
@@ -2905,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -2918,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Xonacatlán</t>
@@ -2931,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -2944,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Zinacantepec</t>
@@ -2957,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Zumpango</t>
@@ -2970,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3001,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Acámbaro</t>
@@ -3014,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>San Miguel De Allende</t>
@@ -3027,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -3040,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -3053,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -3066,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -3079,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -3092,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -3105,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -3118,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Huanímaro</t>
@@ -3131,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -3144,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -3157,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -3170,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>León</t>
@@ -3183,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -3196,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -3209,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -3222,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -3235,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -3248,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -3261,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -3274,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -3287,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>San Diego De La Unión</t>
@@ -3300,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -3313,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>San Francisco Del Rincón</t>
@@ -3326,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -3339,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -3352,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -3365,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -3378,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -3391,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -3404,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -3417,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -3430,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -3443,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Villagrán</t>
@@ -3456,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -3469,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3500,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -3513,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Alcozauca De Guerrero</t>
@@ -3526,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Alpoyeca</t>
@@ -3539,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Apaxtla</t>
@@ -3552,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -3565,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -3578,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -3591,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -3604,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -3617,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Buenavista De Cuéllar</t>
@@ -3630,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -3643,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -3656,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -3669,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>Copala</t>
@@ -3682,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Copalillo</t>
@@ -3695,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -3708,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Coyuca De Catalán</t>
@@ -3721,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -3734,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Cualác</t>
@@ -3747,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Cuautepec</t>
@@ -3760,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Cuetzala Del Progreso</t>
@@ -3773,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -3786,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>General Canuto A. Neri</t>
@@ -3799,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -3812,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Huamuxtitlán</t>
@@ -3825,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -3838,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -3851,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -3864,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -3877,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>La Unión De Isidoro Montes De Oca</t>
@@ -3890,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -3903,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -3916,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Mochitlán</t>
@@ -3929,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -3942,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -3955,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -3968,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Pilcaya</t>
@@ -3981,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -3994,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -4007,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -4020,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -4033,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -4046,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -4059,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -4072,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -4085,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -4098,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Tixtla De Guerrero</t>
@@ -4111,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -4124,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -4137,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Tlalixtaquilla De Maldonado</t>
@@ -4150,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -4163,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -4176,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Xochihuehuetlán</t>
@@ -4189,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Zirándaro</t>
@@ -4202,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4233,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -4246,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Alfajayucan</t>
@@ -4259,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Atotonilco De Tula</t>
@@ -4272,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Cuautepec De Hinojosa</t>
@@ -4285,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -4298,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Huasca De Ocampo</t>
@@ -4311,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Huichapan</t>
@@ -4324,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -4337,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>La Misión</t>
@@ -4350,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -4363,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -4376,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -4389,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>San Bartolo Tutotepec</t>
@@ -4402,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Santiago De Anaya</t>
@@ -4415,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Singuilucan</t>
@@ -4428,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Tasquillo</t>
@@ -4441,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -4454,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Tepehuacán De Guerrero</t>
@@ -4467,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Tezontepec De Aldama</t>
@@ -4480,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Tlanalapa</t>
@@ -4493,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Tlaxcoapan</t>
@@ -4506,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Tolcayuca</t>
@@ -4519,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -4532,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Zacualtipán De Ángeles</t>
@@ -4545,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Zapotlán De Juárez</t>
@@ -4558,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -4571,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4602,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Ahualulco De Mercado</t>
@@ -4615,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Ameca</t>
@@ -4628,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Arandas</t>
@@ -4641,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Atemajac De Brizuela</t>
@@ -4654,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Atengo</t>
@@ -4667,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Atotonilco El Alto</t>
@@ -4680,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -4693,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -4706,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -4719,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Bolaños</t>
@@ -4732,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>Cabo Corrientes</t>
@@ -4745,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -4758,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>Chapala</t>
@@ -4771,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>Chimaltitán</t>
@@ -4784,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>Cihuatlán</t>
@@ -4797,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -4810,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Concepción De Buenos Aires</t>
@@ -4823,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Cuautitlán De García Barragán</t>
@@ -4836,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -4849,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Cuquío</t>
@@ -4862,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -4875,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>El Grullo</t>
@@ -4888,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>El Limón</t>
@@ -4901,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>El Salto</t>
@@ -4914,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -4927,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Etzatlán</t>
@@ -4940,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -4953,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Hostotipaquillo</t>
@@ -4966,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Huejuquilla El Alto</t>
@@ -4979,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Ixtlahuacán De Los Membrillos</t>
@@ -4992,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -5005,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Jamay</t>
@@ -5018,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -5031,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Jilotlán De Los Dolores</t>
@@ -5044,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Jocotepec</t>
@@ -5057,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Juanacatlán</t>
@@ -5070,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Juchitlán</t>
@@ -5083,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -5096,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -5109,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>La Manzanilla De La Paz</t>
@@ -5122,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -5135,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -5148,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Pihuamo</t>
@@ -5161,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Poncitlán</t>
@@ -5174,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -5187,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -5200,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>San Diego De Alejandría</t>
@@ -5213,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -5226,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>San Julián</t>
@@ -5239,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>San Martín Hidalgo</t>
@@ -5252,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -5265,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Tecalitlán</t>
@@ -5278,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Tecolotlán</t>
@@ -5291,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Tenamaxtlán</t>
@@ -5304,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -5317,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -5330,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Teuchitlán</t>
@@ -5343,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -5356,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -5369,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -5382,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -5395,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -5408,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Totatiche</t>
@@ -5421,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>Tototlán</t>
@@ -5434,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Tuxcueca</t>
@@ -5447,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Unión De San Antonio</t>
@@ -5460,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -5473,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Valle De Juárez</t>
@@ -5486,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -5499,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Yahualica De González Gallo</t>
@@ -5512,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Zacoalco De Torres</t>
@@ -5525,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -5538,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Zapotiltic</t>
@@ -5551,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>Zapotlán Del Rey</t>
@@ -5564,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -5577,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -5590,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5621,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>Aguililla</t>
@@ -5634,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Angamacutiro</t>
@@ -5647,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -5660,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Aquila</t>
@@ -5673,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -5686,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Buenavista</t>
@@ -5699,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Carácuaro</t>
@@ -5712,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Churumuco</t>
@@ -5725,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Coahuayana</t>
@@ -5738,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -5751,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Cuitzeo</t>
@@ -5764,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Ecuandureo</t>
@@ -5777,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -5790,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Erongarícuaro</t>
@@ -5803,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Gabriel Zamora</t>
@@ -5816,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -5829,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>Huandacareo</t>
@@ -5842,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -5855,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>Irimbo</t>
@@ -5868,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Ixtlán</t>
@@ -5881,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>Jacona</t>
@@ -5894,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>José Sixto Verduzco</t>
@@ -5907,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -5920,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -5933,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -5946,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -5959,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Los Reyes</t>
@@ -5972,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -5985,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -5998,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -6011,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Múgica</t>
@@ -6024,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>Nahuatzen</t>
@@ -6037,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -6050,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>Pajacuarán</t>
@@ -6063,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -6076,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Peribán</t>
@@ -6089,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -6102,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -6115,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -6128,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Salvador Escalante</t>
@@ -6141,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -6154,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Santa Ana Maya</t>
@@ -6167,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Susupuato</t>
@@ -6180,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -6193,6 +8318,11 @@
       </c>
     </row>
     <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B443" t="inlineStr">
         <is>
           <t>Tangancícuaro</t>
@@ -6206,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Tanhuato</t>
@@ -6219,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Tarímbaro</t>
@@ -6232,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -6245,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>Tiquicheo De Nicolás Romero</t>
@@ -6258,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Tlalpujahua</t>
@@ -6271,6 +8426,11 @@
       </c>
     </row>
     <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B449" t="inlineStr">
         <is>
           <t>Tumbiscatío</t>
@@ -6284,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -6297,6 +8462,11 @@
       </c>
     </row>
     <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B451" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -6310,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -6323,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Tzitzio</t>
@@ -6336,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -6349,6 +8534,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -6362,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Villamar</t>
@@ -6375,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Vista Hermosa</t>
@@ -6388,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Yurécuaro</t>
@@ -6401,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -6414,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -6427,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -6440,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Ziracuaretiro</t>
@@ -6453,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -6466,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6497,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Ayala</t>
@@ -6510,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Coatlán Del Río</t>
@@ -6523,6 +8768,11 @@
       </c>
     </row>
     <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -6536,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -6549,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Jantetelco</t>
@@ -6562,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Jiutepec</t>
@@ -6575,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -6588,6 +8858,11 @@
       </c>
     </row>
     <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B473" t="inlineStr">
         <is>
           <t>Puente De Ixtla</t>
@@ -6601,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -6614,6 +8894,11 @@
       </c>
     </row>
     <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B475" t="inlineStr">
         <is>
           <t>Tlaltizapán De Zapata</t>
@@ -6627,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -6640,6 +8930,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>Totolapan</t>
@@ -6653,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Xochitepec</t>
@@ -6666,6 +8966,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -6679,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>Zacatepec</t>
@@ -6692,6 +9002,11 @@
       </c>
     </row>
     <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6723,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Bahía De Banderas</t>
@@ -6736,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Compostela</t>
@@ -6749,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Del Nayar</t>
@@ -6762,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -6775,6 +9110,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>Ruíz</t>
@@ -6788,6 +9128,11 @@
       </c>
     </row>
     <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
           <t>San Blas</t>
@@ -6801,6 +9146,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -6814,6 +9164,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>Tecuala</t>
@@ -6827,6 +9182,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -6840,6 +9200,11 @@
       </c>
     </row>
     <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B492" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -6853,6 +9218,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6884,6 +9254,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>Cadereyta Jiménez</t>
@@ -6897,6 +9272,11 @@
       </c>
     </row>
     <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>Doctor Arroyo</t>
@@ -6910,6 +9290,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>Galeana</t>
@@ -6923,6 +9308,11 @@
       </c>
     </row>
     <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
           <t>General Terán</t>
@@ -6936,6 +9326,11 @@
       </c>
     </row>
     <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
           <t>Linares</t>
@@ -6949,6 +9344,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>Los Ramones</t>
@@ -6962,6 +9362,11 @@
       </c>
     </row>
     <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -6975,6 +9380,11 @@
       </c>
     </row>
     <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
           <t>Pesquería</t>
@@ -6988,6 +9398,11 @@
       </c>
     </row>
     <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
           <t>San Nicolás De Los Garza</t>
@@ -7001,6 +9416,11 @@
       </c>
     </row>
     <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
           <t>San Pedro Garza García</t>
@@ -7014,6 +9434,11 @@
       </c>
     </row>
     <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7045,6 +9470,11 @@
       </c>
     </row>
     <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B507" t="inlineStr">
         <is>
           <t>Concepción Pápalo</t>
@@ -7058,6 +9488,11 @@
       </c>
     </row>
     <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B508" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -7071,6 +9506,11 @@
       </c>
     </row>
     <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Ejutla De Crespo</t>
@@ -7084,6 +9524,11 @@
       </c>
     </row>
     <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -7097,6 +9542,11 @@
       </c>
     </row>
     <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -7110,6 +9560,11 @@
       </c>
     </row>
     <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B512" t="inlineStr">
         <is>
           <t>Ixpantepec Nieves</t>
@@ -7123,6 +9578,11 @@
       </c>
     </row>
     <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B513" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -7136,6 +9596,11 @@
       </c>
     </row>
     <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -7149,6 +9614,11 @@
       </c>
     </row>
     <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
           <t>Mariscala De Juárez</t>
@@ -7162,6 +9632,11 @@
       </c>
     </row>
     <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B516" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -7175,6 +9650,11 @@
       </c>
     </row>
     <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B517" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -7188,6 +9668,11 @@
       </c>
     </row>
     <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B518" t="inlineStr">
         <is>
           <t>Nejapa De Madero</t>
@@ -7201,6 +9686,11 @@
       </c>
     </row>
     <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B519" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -7214,6 +9704,11 @@
       </c>
     </row>
     <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B520" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -7227,6 +9722,11 @@
       </c>
     </row>
     <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B521" t="inlineStr">
         <is>
           <t>San Agustín Loxicha</t>
@@ -7240,6 +9740,11 @@
       </c>
     </row>
     <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B522" t="inlineStr">
         <is>
           <t>San Agustín Tlacotepec</t>
@@ -7253,6 +9758,11 @@
       </c>
     </row>
     <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B523" t="inlineStr">
         <is>
           <t>San Baltazar Yatzachi El Bajo</t>
@@ -7266,6 +9776,11 @@
       </c>
     </row>
     <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B524" t="inlineStr">
         <is>
           <t>San Bartolo Coyotepec</t>
@@ -7279,6 +9794,11 @@
       </c>
     </row>
     <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B525" t="inlineStr">
         <is>
           <t>San Blas Atempa</t>
@@ -7292,6 +9812,11 @@
       </c>
     </row>
     <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B526" t="inlineStr">
         <is>
           <t>San Francisco Chapulapa</t>
@@ -7305,6 +9830,11 @@
       </c>
     </row>
     <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B527" t="inlineStr">
         <is>
           <t>San Francisco Teopan</t>
@@ -7318,6 +9848,11 @@
       </c>
     </row>
     <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B528" t="inlineStr">
         <is>
           <t>San Francisco Tlapancingo</t>
@@ -7331,6 +9866,11 @@
       </c>
     </row>
     <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B529" t="inlineStr">
         <is>
           <t>San Jerónimo Silacayoapilla</t>
@@ -7344,6 +9884,11 @@
       </c>
     </row>
     <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B530" t="inlineStr">
         <is>
           <t>San José Ayuquila</t>
@@ -7357,6 +9902,11 @@
       </c>
     </row>
     <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B531" t="inlineStr">
         <is>
           <t>San Juan Bautista Jayacatlán</t>
@@ -7370,6 +9920,11 @@
       </c>
     </row>
     <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B532" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -7383,6 +9938,11 @@
       </c>
     </row>
     <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B533" t="inlineStr">
         <is>
           <t>San Juan Bautista Valle Nacional</t>
@@ -7396,6 +9956,11 @@
       </c>
     </row>
     <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B534" t="inlineStr">
         <is>
           <t>San Juan Guichicovi</t>
@@ -7409,6 +9974,11 @@
       </c>
     </row>
     <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B535" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -7422,6 +9992,11 @@
       </c>
     </row>
     <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B536" t="inlineStr">
         <is>
           <t>San Lorenzo Texmelúcan</t>
@@ -7435,6 +10010,11 @@
       </c>
     </row>
     <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B537" t="inlineStr">
         <is>
           <t>San Lucas Ojitlán</t>
@@ -7448,6 +10028,11 @@
       </c>
     </row>
     <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B538" t="inlineStr">
         <is>
           <t>San Martín Itunyoso</t>
@@ -7461,6 +10046,11 @@
       </c>
     </row>
     <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B539" t="inlineStr">
         <is>
           <t>San Martín Peras</t>
@@ -7474,6 +10064,11 @@
       </c>
     </row>
     <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B540" t="inlineStr">
         <is>
           <t>San Miguel Amatitlán</t>
@@ -7487,6 +10082,11 @@
       </c>
     </row>
     <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B541" t="inlineStr">
         <is>
           <t>San Miguel Del Puerto</t>
@@ -7500,6 +10100,11 @@
       </c>
     </row>
     <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B542" t="inlineStr">
         <is>
           <t>San Miguel El Grande</t>
@@ -7513,6 +10118,11 @@
       </c>
     </row>
     <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B543" t="inlineStr">
         <is>
           <t>San Miguel Tlacamama</t>
@@ -7526,6 +10136,11 @@
       </c>
     </row>
     <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
           <t>San Nicolás Hidalgo</t>
@@ -7539,6 +10154,11 @@
       </c>
     </row>
     <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B545" t="inlineStr">
         <is>
           <t>San Pedro Jicayán</t>
@@ -7552,6 +10172,11 @@
       </c>
     </row>
     <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B546" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -7565,6 +10190,11 @@
       </c>
     </row>
     <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B547" t="inlineStr">
         <is>
           <t>San Sebastián Ixcapa</t>
@@ -7578,6 +10208,11 @@
       </c>
     </row>
     <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B548" t="inlineStr">
         <is>
           <t>Santa Catarina Lachatao</t>
@@ -7591,6 +10226,11 @@
       </c>
     </row>
     <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B549" t="inlineStr">
         <is>
           <t>Santa Catarina Loxicha</t>
@@ -7604,6 +10244,11 @@
       </c>
     </row>
     <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B550" t="inlineStr">
         <is>
           <t>Santa Cruz Itundujia</t>
@@ -7617,6 +10262,11 @@
       </c>
     </row>
     <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B551" t="inlineStr">
         <is>
           <t>Santa Cruz Tacache De Mina</t>
@@ -7630,6 +10280,11 @@
       </c>
     </row>
     <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B552" t="inlineStr">
         <is>
           <t>Santa María Guienagati</t>
@@ -7643,6 +10298,11 @@
       </c>
     </row>
     <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B553" t="inlineStr">
         <is>
           <t>Santa María Huazolotitlán</t>
@@ -7656,6 +10316,11 @@
       </c>
     </row>
     <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B554" t="inlineStr">
         <is>
           <t>Santa María Jacatepec</t>
@@ -7669,6 +10334,11 @@
       </c>
     </row>
     <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B555" t="inlineStr">
         <is>
           <t>Santa María Sola</t>
@@ -7682,6 +10352,11 @@
       </c>
     </row>
     <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B556" t="inlineStr">
         <is>
           <t>Santa María Temaxcaltepec</t>
@@ -7695,6 +10370,11 @@
       </c>
     </row>
     <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B557" t="inlineStr">
         <is>
           <t>Santiago Ayuquililla</t>
@@ -7708,6 +10388,11 @@
       </c>
     </row>
     <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B558" t="inlineStr">
         <is>
           <t>Santiago Huajolotitlán</t>
@@ -7721,6 +10406,11 @@
       </c>
     </row>
     <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B559" t="inlineStr">
         <is>
           <t>Santiago Ixtayutla</t>
@@ -7734,6 +10424,11 @@
       </c>
     </row>
     <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B560" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -7747,6 +10442,11 @@
       </c>
     </row>
     <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B561" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -7760,6 +10460,11 @@
       </c>
     </row>
     <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B562" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -7773,6 +10478,11 @@
       </c>
     </row>
     <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B563" t="inlineStr">
         <is>
           <t>Santiago Tamazola</t>
@@ -7786,6 +10496,11 @@
       </c>
     </row>
     <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B564" t="inlineStr">
         <is>
           <t>Santiago Tapextla</t>
@@ -7799,6 +10514,11 @@
       </c>
     </row>
     <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B565" t="inlineStr">
         <is>
           <t>Santo Domingo Armenta</t>
@@ -7812,6 +10532,11 @@
       </c>
     </row>
     <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B566" t="inlineStr">
         <is>
           <t>Santo Domingo Tehuantepec</t>
@@ -7825,6 +10550,11 @@
       </c>
     </row>
     <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B567" t="inlineStr">
         <is>
           <t>Santo Domingo Tonalá</t>
@@ -7838,6 +10568,11 @@
       </c>
     </row>
     <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B568" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -7851,6 +10586,11 @@
       </c>
     </row>
     <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B569" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -7864,6 +10604,11 @@
       </c>
     </row>
     <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B570" t="inlineStr">
         <is>
           <t>Taniche</t>
@@ -7877,6 +10622,11 @@
       </c>
     </row>
     <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B571" t="inlineStr">
         <is>
           <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
@@ -7890,6 +10640,11 @@
       </c>
     </row>
     <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B572" t="inlineStr">
         <is>
           <t>Tlacolula De Matamoros</t>
@@ -7903,6 +10658,11 @@
       </c>
     </row>
     <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B573" t="inlineStr">
         <is>
           <t>Zapotitlán Lagunas</t>
@@ -7916,6 +10676,11 @@
       </c>
     </row>
     <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B574" t="inlineStr">
         <is>
           <t>Zimatlán De Álvarez</t>
@@ -7929,6 +10694,11 @@
       </c>
     </row>
     <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B575" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7960,6 +10730,11 @@
       </c>
     </row>
     <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B577" t="inlineStr">
         <is>
           <t>Amozoc</t>
@@ -7973,6 +10748,11 @@
       </c>
     </row>
     <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B578" t="inlineStr">
         <is>
           <t>Aquixtla</t>
@@ -7986,6 +10766,11 @@
       </c>
     </row>
     <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B579" t="inlineStr">
         <is>
           <t>Atexcal</t>
@@ -7999,6 +10784,11 @@
       </c>
     </row>
     <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B580" t="inlineStr">
         <is>
           <t>Atzitzintla</t>
@@ -8012,6 +10802,11 @@
       </c>
     </row>
     <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B581" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -8025,6 +10820,11 @@
       </c>
     </row>
     <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B582" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -8038,6 +10838,11 @@
       </c>
     </row>
     <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B583" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -8051,6 +10856,11 @@
       </c>
     </row>
     <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B584" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -8064,6 +10874,11 @@
       </c>
     </row>
     <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B585" t="inlineStr">
         <is>
           <t>Cuautlancingo</t>
@@ -8077,6 +10892,11 @@
       </c>
     </row>
     <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B586" t="inlineStr">
         <is>
           <t>Cuyoaco</t>
@@ -8090,6 +10910,11 @@
       </c>
     </row>
     <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B587" t="inlineStr">
         <is>
           <t>Epatlán</t>
@@ -8103,6 +10928,11 @@
       </c>
     </row>
     <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B588" t="inlineStr">
         <is>
           <t>Honey</t>
@@ -8116,6 +10946,11 @@
       </c>
     </row>
     <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B589" t="inlineStr">
         <is>
           <t>Huatlatlauca</t>
@@ -8129,6 +10964,11 @@
       </c>
     </row>
     <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B590" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -8142,6 +10982,11 @@
       </c>
     </row>
     <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B591" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -8155,6 +11000,11 @@
       </c>
     </row>
     <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B592" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -8168,6 +11018,11 @@
       </c>
     </row>
     <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B593" t="inlineStr">
         <is>
           <t>Pahuatlán</t>
@@ -8181,6 +11036,11 @@
       </c>
     </row>
     <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B594" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -8194,6 +11054,11 @@
       </c>
     </row>
     <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B595" t="inlineStr">
         <is>
           <t>Quecholac</t>
@@ -8207,6 +11072,11 @@
       </c>
     </row>
     <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B596" t="inlineStr">
         <is>
           <t>San Andrés Cholula</t>
@@ -8220,6 +11090,11 @@
       </c>
     </row>
     <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B597" t="inlineStr">
         <is>
           <t>San José Miahuatlán</t>
@@ -8233,6 +11108,11 @@
       </c>
     </row>
     <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B598" t="inlineStr">
         <is>
           <t>San Pablo Anicano</t>
@@ -8246,6 +11126,11 @@
       </c>
     </row>
     <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B599" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -8259,6 +11144,11 @@
       </c>
     </row>
     <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B600" t="inlineStr">
         <is>
           <t>Santo Tomás Hueyotlipan</t>
@@ -8272,6 +11162,11 @@
       </c>
     </row>
     <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B601" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -8285,6 +11180,11 @@
       </c>
     </row>
     <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B602" t="inlineStr">
         <is>
           <t>Tecomatlán</t>
@@ -8298,6 +11198,11 @@
       </c>
     </row>
     <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B603" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -8311,6 +11216,11 @@
       </c>
     </row>
     <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B604" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -8324,6 +11234,11 @@
       </c>
     </row>
     <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B605" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -8337,6 +11252,11 @@
       </c>
     </row>
     <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B606" t="inlineStr">
         <is>
           <t>Tilapa</t>
@@ -8350,6 +11270,11 @@
       </c>
     </row>
     <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B607" t="inlineStr">
         <is>
           <t>Tlachichuca</t>
@@ -8363,6 +11288,11 @@
       </c>
     </row>
     <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B608" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -8376,6 +11306,11 @@
       </c>
     </row>
     <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B609" t="inlineStr">
         <is>
           <t>Tlacuilotepec</t>
@@ -8389,6 +11324,11 @@
       </c>
     </row>
     <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B610" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -8402,6 +11342,11 @@
       </c>
     </row>
     <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B611" t="inlineStr">
         <is>
           <t>Tlanepantla</t>
@@ -8415,6 +11360,11 @@
       </c>
     </row>
     <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B612" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -8428,6 +11378,11 @@
       </c>
     </row>
     <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B613" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -8441,6 +11396,11 @@
       </c>
     </row>
     <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B614" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -8454,6 +11414,11 @@
       </c>
     </row>
     <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B615" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8485,6 +11450,11 @@
       </c>
     </row>
     <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B617" t="inlineStr">
         <is>
           <t>Arroyo Seco</t>
@@ -8498,6 +11468,11 @@
       </c>
     </row>
     <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B618" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -8511,6 +11486,11 @@
       </c>
     </row>
     <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B619" t="inlineStr">
         <is>
           <t>Colón</t>
@@ -8524,6 +11504,11 @@
       </c>
     </row>
     <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B620" t="inlineStr">
         <is>
           <t>El Marqués</t>
@@ -8537,6 +11522,11 @@
       </c>
     </row>
     <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B621" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -8550,6 +11540,11 @@
       </c>
     </row>
     <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B622" t="inlineStr">
         <is>
           <t>Pedro Escobedo</t>
@@ -8563,6 +11558,11 @@
       </c>
     </row>
     <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B623" t="inlineStr">
         <is>
           <t>Peñamiller</t>
@@ -8576,6 +11576,11 @@
       </c>
     </row>
     <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B624" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -8589,6 +11594,11 @@
       </c>
     </row>
     <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B625" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -8602,6 +11612,11 @@
       </c>
     </row>
     <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B626" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -8615,6 +11630,11 @@
       </c>
     </row>
     <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B627" t="inlineStr">
         <is>
           <t>Tolimán</t>
@@ -8628,6 +11648,11 @@
       </c>
     </row>
     <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B628" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8659,6 +11684,11 @@
       </c>
     </row>
     <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B630" t="inlineStr">
         <is>
           <t>Othón P. Blanco</t>
@@ -8672,6 +11702,11 @@
       </c>
     </row>
     <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B631" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8703,6 +11738,11 @@
       </c>
     </row>
     <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B633" t="inlineStr">
         <is>
           <t>Aquismón</t>
@@ -8716,6 +11756,11 @@
       </c>
     </row>
     <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B634" t="inlineStr">
         <is>
           <t>Cerritos</t>
@@ -8729,6 +11774,11 @@
       </c>
     </row>
     <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B635" t="inlineStr">
         <is>
           <t>Charcas</t>
@@ -8742,6 +11792,11 @@
       </c>
     </row>
     <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B636" t="inlineStr">
         <is>
           <t>Ciudad Del Maíz</t>
@@ -8755,6 +11810,11 @@
       </c>
     </row>
     <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B637" t="inlineStr">
         <is>
           <t>Ciudad Fernández</t>
@@ -8768,6 +11828,11 @@
       </c>
     </row>
     <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B638" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -8781,6 +11846,11 @@
       </c>
     </row>
     <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B639" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -8794,6 +11864,11 @@
       </c>
     </row>
     <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B640" t="inlineStr">
         <is>
           <t>Mexquitic De Carmona</t>
@@ -8807,6 +11882,11 @@
       </c>
     </row>
     <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B641" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -8820,6 +11900,11 @@
       </c>
     </row>
     <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B642" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -8833,6 +11918,11 @@
       </c>
     </row>
     <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B643" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -8846,6 +11936,11 @@
       </c>
     </row>
     <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B644" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -8859,6 +11954,11 @@
       </c>
     </row>
     <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B645" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -8872,6 +11972,11 @@
       </c>
     </row>
     <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B646" t="inlineStr">
         <is>
           <t>Villa De Arriaga</t>
@@ -8885,6 +11990,11 @@
       </c>
     </row>
     <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B647" t="inlineStr">
         <is>
           <t>Villa De La Paz</t>
@@ -8898,6 +12008,11 @@
       </c>
     </row>
     <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B648" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -8911,6 +12026,11 @@
       </c>
     </row>
     <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B649" t="inlineStr">
         <is>
           <t>Villa De Reyes</t>
@@ -8924,6 +12044,11 @@
       </c>
     </row>
     <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B650" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -8937,6 +12062,11 @@
       </c>
     </row>
     <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B651" t="inlineStr">
         <is>
           <t>Villa Juárez</t>
@@ -8950,6 +12080,11 @@
       </c>
     </row>
     <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B652" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -8963,6 +12098,11 @@
       </c>
     </row>
     <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B653" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8994,6 +12134,11 @@
       </c>
     </row>
     <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B655" t="inlineStr">
         <is>
           <t>Angostura</t>
@@ -9007,6 +12152,11 @@
       </c>
     </row>
     <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B656" t="inlineStr">
         <is>
           <t>Badiraguato</t>
@@ -9020,6 +12170,11 @@
       </c>
     </row>
     <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B657" t="inlineStr">
         <is>
           <t>Choix</t>
@@ -9033,6 +12188,11 @@
       </c>
     </row>
     <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B658" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -9046,6 +12206,11 @@
       </c>
     </row>
     <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B659" t="inlineStr">
         <is>
           <t>El Fuerte</t>
@@ -9059,6 +12224,11 @@
       </c>
     </row>
     <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B660" t="inlineStr">
         <is>
           <t>Elota</t>
@@ -9072,6 +12242,11 @@
       </c>
     </row>
     <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B661" t="inlineStr">
         <is>
           <t>Escuinapa</t>
@@ -9085,6 +12260,11 @@
       </c>
     </row>
     <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B662" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -9098,6 +12278,11 @@
       </c>
     </row>
     <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B663" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -9111,6 +12296,11 @@
       </c>
     </row>
     <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B664" t="inlineStr">
         <is>
           <t>Mocorito</t>
@@ -9124,6 +12314,11 @@
       </c>
     </row>
     <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B665" t="inlineStr">
         <is>
           <t>Navolato</t>
@@ -9137,6 +12332,11 @@
       </c>
     </row>
     <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B666" t="inlineStr">
         <is>
           <t>Salvador Alvarado</t>
@@ -9150,6 +12350,11 @@
       </c>
     </row>
     <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B667" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9181,6 +12386,11 @@
       </c>
     </row>
     <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B669" t="inlineStr">
         <is>
           <t>Agua Prieta</t>
@@ -9194,6 +12404,11 @@
       </c>
     </row>
     <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B670" t="inlineStr">
         <is>
           <t>Bácum</t>
@@ -9207,6 +12422,11 @@
       </c>
     </row>
     <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B671" t="inlineStr">
         <is>
           <t>Caborca</t>
@@ -9220,6 +12440,11 @@
       </c>
     </row>
     <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B672" t="inlineStr">
         <is>
           <t>Cajeme</t>
@@ -9233,6 +12458,11 @@
       </c>
     </row>
     <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B673" t="inlineStr">
         <is>
           <t>Cananea</t>
@@ -9246,6 +12476,11 @@
       </c>
     </row>
     <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B674" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -9259,6 +12494,11 @@
       </c>
     </row>
     <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B675" t="inlineStr">
         <is>
           <t>Huatabampo</t>
@@ -9272,6 +12512,11 @@
       </c>
     </row>
     <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B676" t="inlineStr">
         <is>
           <t>Navojoa</t>
@@ -9285,6 +12530,11 @@
       </c>
     </row>
     <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B677" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -9298,6 +12548,11 @@
       </c>
     </row>
     <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B678" t="inlineStr">
         <is>
           <t>San Luis Río Colorado</t>
@@ -9311,6 +12566,11 @@
       </c>
     </row>
     <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B679" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9342,6 +12602,11 @@
       </c>
     </row>
     <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B681" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -9355,6 +12620,11 @@
       </c>
     </row>
     <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B682" t="inlineStr">
         <is>
           <t>Centro</t>
@@ -9368,6 +12638,11 @@
       </c>
     </row>
     <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B683" t="inlineStr">
         <is>
           <t>Comalcalco</t>
@@ -9381,6 +12656,11 @@
       </c>
     </row>
     <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B684" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -9394,6 +12674,11 @@
       </c>
     </row>
     <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B685" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -9407,6 +12692,11 @@
       </c>
     </row>
     <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B686" t="inlineStr">
         <is>
           <t>Tenosique</t>
@@ -9420,6 +12710,11 @@
       </c>
     </row>
     <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B687" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9451,6 +12746,11 @@
       </c>
     </row>
     <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B689" t="inlineStr">
         <is>
           <t>Aldama</t>
@@ -9464,6 +12764,11 @@
       </c>
     </row>
     <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B690" t="inlineStr">
         <is>
           <t>Camargo</t>
@@ -9477,6 +12782,11 @@
       </c>
     </row>
     <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B691" t="inlineStr">
         <is>
           <t>Ciudad Madero</t>
@@ -9490,6 +12800,11 @@
       </c>
     </row>
     <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B692" t="inlineStr">
         <is>
           <t>González</t>
@@ -9503,6 +12818,11 @@
       </c>
     </row>
     <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B693" t="inlineStr">
         <is>
           <t>Llera</t>
@@ -9516,6 +12836,11 @@
       </c>
     </row>
     <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B694" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -9529,6 +12854,11 @@
       </c>
     </row>
     <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B695" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -9542,6 +12872,11 @@
       </c>
     </row>
     <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B696" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -9555,6 +12890,11 @@
       </c>
     </row>
     <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B697" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -9568,6 +12908,11 @@
       </c>
     </row>
     <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B698" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -9581,6 +12926,11 @@
       </c>
     </row>
     <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B699" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -9594,6 +12944,11 @@
       </c>
     </row>
     <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B700" t="inlineStr">
         <is>
           <t>Valle Hermoso</t>
@@ -9607,6 +12962,11 @@
       </c>
     </row>
     <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B701" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -9620,6 +12980,11 @@
       </c>
     </row>
     <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B702" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9651,6 +13016,11 @@
       </c>
     </row>
     <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B704" t="inlineStr">
         <is>
           <t>Apizaco</t>
@@ -9664,6 +13034,11 @@
       </c>
     </row>
     <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B705" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -9677,6 +13052,11 @@
       </c>
     </row>
     <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B706" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -9690,6 +13070,11 @@
       </c>
     </row>
     <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B707" t="inlineStr">
         <is>
           <t>Terrenate</t>
@@ -9703,6 +13088,11 @@
       </c>
     </row>
     <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B708" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -9716,6 +13106,11 @@
       </c>
     </row>
     <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B709" t="inlineStr">
         <is>
           <t>Tzompantepec</t>
@@ -9729,6 +13124,11 @@
       </c>
     </row>
     <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B710" t="inlineStr">
         <is>
           <t>Total</t>
@@ -9760,6 +13160,11 @@
       </c>
     </row>
     <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B712" t="inlineStr">
         <is>
           <t>Acayucan</t>
@@ -9773,6 +13178,11 @@
       </c>
     </row>
     <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B713" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -9786,6 +13196,11 @@
       </c>
     </row>
     <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B714" t="inlineStr">
         <is>
           <t>Amatitlán</t>
@@ -9799,6 +13214,11 @@
       </c>
     </row>
     <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B715" t="inlineStr">
         <is>
           <t>Amatlán De Los Reyes</t>
@@ -9812,6 +13232,11 @@
       </c>
     </row>
     <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B716" t="inlineStr">
         <is>
           <t>Angel R. Cabada</t>
@@ -9825,6 +13250,11 @@
       </c>
     </row>
     <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B717" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -9838,6 +13268,11 @@
       </c>
     </row>
     <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B718" t="inlineStr">
         <is>
           <t>Banderilla</t>
@@ -9851,6 +13286,11 @@
       </c>
     </row>
     <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B719" t="inlineStr">
         <is>
           <t>Camerino Z. Mendoza</t>
@@ -9864,6 +13304,11 @@
       </c>
     </row>
     <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B720" t="inlineStr">
         <is>
           <t>Carrillo Puerto</t>
@@ -9877,6 +13322,11 @@
       </c>
     </row>
     <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B721" t="inlineStr">
         <is>
           <t>Castillo De Teayo</t>
@@ -9890,6 +13340,11 @@
       </c>
     </row>
     <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B722" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -9903,6 +13358,11 @@
       </c>
     </row>
     <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B723" t="inlineStr">
         <is>
           <t>Chiconamel</t>
@@ -9916,6 +13376,11 @@
       </c>
     </row>
     <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B724" t="inlineStr">
         <is>
           <t>Chiconquiaco</t>
@@ -9929,6 +13394,11 @@
       </c>
     </row>
     <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B725" t="inlineStr">
         <is>
           <t>Chicontepec</t>
@@ -9942,6 +13412,11 @@
       </c>
     </row>
     <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B726" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -9955,6 +13430,11 @@
       </c>
     </row>
     <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B727" t="inlineStr">
         <is>
           <t>Comapa</t>
@@ -9968,6 +13448,11 @@
       </c>
     </row>
     <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B728" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -9981,6 +13466,11 @@
       </c>
     </row>
     <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B729" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -9994,6 +13484,11 @@
       </c>
     </row>
     <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B730" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -10007,6 +13502,11 @@
       </c>
     </row>
     <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B731" t="inlineStr">
         <is>
           <t>Cotaxtla</t>
@@ -10020,6 +13520,11 @@
       </c>
     </row>
     <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B732" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -10033,6 +13538,11 @@
       </c>
     </row>
     <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B733" t="inlineStr">
         <is>
           <t>Espinal</t>
@@ -10046,6 +13556,11 @@
       </c>
     </row>
     <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B734" t="inlineStr">
         <is>
           <t>Gutiérrez Zamora</t>
@@ -10059,6 +13574,11 @@
       </c>
     </row>
     <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B735" t="inlineStr">
         <is>
           <t>Hidalgotitlán</t>
@@ -10072,6 +13592,11 @@
       </c>
     </row>
     <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B736" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -10085,6 +13610,11 @@
       </c>
     </row>
     <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B737" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -10098,6 +13628,11 @@
       </c>
     </row>
     <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B738" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -10111,6 +13646,11 @@
       </c>
     </row>
     <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B739" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -10124,6 +13664,11 @@
       </c>
     </row>
     <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B740" t="inlineStr">
         <is>
           <t>Jáltipan</t>
@@ -10137,6 +13682,11 @@
       </c>
     </row>
     <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B741" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -10150,6 +13700,11 @@
       </c>
     </row>
     <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B742" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -10163,6 +13718,11 @@
       </c>
     </row>
     <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B743" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -10176,6 +13736,11 @@
       </c>
     </row>
     <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B744" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -10189,6 +13754,11 @@
       </c>
     </row>
     <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B745" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -10202,6 +13772,11 @@
       </c>
     </row>
     <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B746" t="inlineStr">
         <is>
           <t>Medellín De Bravo</t>
@@ -10215,6 +13790,11 @@
       </c>
     </row>
     <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B747" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -10228,6 +13808,11 @@
       </c>
     </row>
     <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B748" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -10241,6 +13826,11 @@
       </c>
     </row>
     <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B749" t="inlineStr">
         <is>
           <t>Otatitlán</t>
@@ -10254,6 +13844,11 @@
       </c>
     </row>
     <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B750" t="inlineStr">
         <is>
           <t>Oteapan</t>
@@ -10267,6 +13862,11 @@
       </c>
     </row>
     <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B751" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -10280,6 +13880,11 @@
       </c>
     </row>
     <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B752" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -10293,6 +13898,11 @@
       </c>
     </row>
     <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B753" t="inlineStr">
         <is>
           <t>Platón Sánchez</t>
@@ -10306,6 +13916,11 @@
       </c>
     </row>
     <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B754" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -10319,6 +13934,11 @@
       </c>
     </row>
     <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B755" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -10332,6 +13952,11 @@
       </c>
     </row>
     <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B756" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -10345,6 +13970,11 @@
       </c>
     </row>
     <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B757" t="inlineStr">
         <is>
           <t>Soledad Atzompa</t>
@@ -10358,6 +13988,11 @@
       </c>
     </row>
     <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B758" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -10371,6 +14006,11 @@
       </c>
     </row>
     <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B759" t="inlineStr">
         <is>
           <t>Soteapan</t>
@@ -10384,6 +14024,11 @@
       </c>
     </row>
     <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B760" t="inlineStr">
         <is>
           <t>Tantoyuca</t>
@@ -10397,6 +14042,11 @@
       </c>
     </row>
     <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B761" t="inlineStr">
         <is>
           <t>Tecolutla</t>
@@ -10410,6 +14060,11 @@
       </c>
     </row>
     <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B762" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -10423,6 +14078,11 @@
       </c>
     </row>
     <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B763" t="inlineStr">
         <is>
           <t>Tenampa</t>
@@ -10436,6 +14096,11 @@
       </c>
     </row>
     <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B764" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -10449,6 +14114,11 @@
       </c>
     </row>
     <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B765" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -10462,6 +14132,11 @@
       </c>
     </row>
     <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B766" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -10475,6 +14150,11 @@
       </c>
     </row>
     <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B767" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -10488,6 +14168,11 @@
       </c>
     </row>
     <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B768" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -10501,6 +14186,11 @@
       </c>
     </row>
     <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B769" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -10514,6 +14204,11 @@
       </c>
     </row>
     <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B770" t="inlineStr">
         <is>
           <t>Yecuatla</t>
@@ -10527,6 +14222,11 @@
       </c>
     </row>
     <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B771" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -10540,6 +14240,11 @@
       </c>
     </row>
     <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B772" t="inlineStr">
         <is>
           <t>Zozocolco De Hidalgo</t>
@@ -10553,6 +14258,11 @@
       </c>
     </row>
     <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B773" t="inlineStr">
         <is>
           <t>Total</t>
@@ -10584,6 +14294,11 @@
       </c>
     </row>
     <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B775" t="inlineStr">
         <is>
           <t>Mérida</t>
@@ -10597,6 +14312,11 @@
       </c>
     </row>
     <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B776" t="inlineStr">
         <is>
           <t>Opichén</t>
@@ -10610,6 +14330,11 @@
       </c>
     </row>
     <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B777" t="inlineStr">
         <is>
           <t>Peto</t>
@@ -10623,6 +14348,11 @@
       </c>
     </row>
     <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B778" t="inlineStr">
         <is>
           <t>Total</t>
@@ -10654,6 +14384,11 @@
       </c>
     </row>
     <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B780" t="inlineStr">
         <is>
           <t>Atolinga</t>
@@ -10667,6 +14402,11 @@
       </c>
     </row>
     <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B781" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -10680,6 +14420,11 @@
       </c>
     </row>
     <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B782" t="inlineStr">
         <is>
           <t>Calera</t>
@@ -10693,6 +14438,11 @@
       </c>
     </row>
     <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B783" t="inlineStr">
         <is>
           <t>Chalchihuites</t>
@@ -10706,6 +14456,11 @@
       </c>
     </row>
     <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B784" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -10719,6 +14474,11 @@
       </c>
     </row>
     <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B785" t="inlineStr">
         <is>
           <t>General Francisco R. Murguía</t>
@@ -10732,6 +14492,11 @@
       </c>
     </row>
     <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B786" t="inlineStr">
         <is>
           <t>General Pánfilo Natera</t>
@@ -10745,6 +14510,11 @@
       </c>
     </row>
     <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B787" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -10758,6 +14528,11 @@
       </c>
     </row>
     <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B788" t="inlineStr">
         <is>
           <t>Jalpa</t>
@@ -10771,6 +14546,11 @@
       </c>
     </row>
     <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B789" t="inlineStr">
         <is>
           <t>Jerez</t>
@@ -10784,6 +14564,11 @@
       </c>
     </row>
     <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B790" t="inlineStr">
         <is>
           <t>Juan Aldama</t>
@@ -10797,6 +14582,11 @@
       </c>
     </row>
     <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B791" t="inlineStr">
         <is>
           <t>Juchipila</t>
@@ -10810,6 +14600,11 @@
       </c>
     </row>
     <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B792" t="inlineStr">
         <is>
           <t>Loreto</t>
@@ -10823,6 +14618,11 @@
       </c>
     </row>
     <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B793" t="inlineStr">
         <is>
           <t>Miguel Auza</t>
@@ -10836,6 +14636,11 @@
       </c>
     </row>
     <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B794" t="inlineStr">
         <is>
           <t>Monte Escobedo</t>
@@ -10849,6 +14654,11 @@
       </c>
     </row>
     <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B795" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -10862,6 +14672,11 @@
       </c>
     </row>
     <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B796" t="inlineStr">
         <is>
           <t>Nochistlán De Mejía</t>
@@ -10875,6 +14690,11 @@
       </c>
     </row>
     <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B797" t="inlineStr">
         <is>
           <t>Noria De Ángeles</t>
@@ -10888,6 +14708,11 @@
       </c>
     </row>
     <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B798" t="inlineStr">
         <is>
           <t>Ojocaliente</t>
@@ -10901,6 +14726,11 @@
       </c>
     </row>
     <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B799" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -10914,6 +14744,11 @@
       </c>
     </row>
     <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B800" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -10927,6 +14762,11 @@
       </c>
     </row>
     <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B801" t="inlineStr">
         <is>
           <t>Sain Alto</t>
@@ -10940,6 +14780,11 @@
       </c>
     </row>
     <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B802" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -10953,6 +14798,11 @@
       </c>
     </row>
     <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B803" t="inlineStr">
         <is>
           <t>Tabasco</t>
@@ -10966,6 +14816,11 @@
       </c>
     </row>
     <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B804" t="inlineStr">
         <is>
           <t>Tepetongo</t>
@@ -10979,6 +14834,11 @@
       </c>
     </row>
     <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B805" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -10992,6 +14852,11 @@
       </c>
     </row>
     <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B806" t="inlineStr">
         <is>
           <t>Vetagrande</t>
@@ -11005,6 +14870,11 @@
       </c>
     </row>
     <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B807" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -11018,6 +14888,11 @@
       </c>
     </row>
     <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B808" t="inlineStr">
         <is>
           <t>Villa González Ortega</t>
@@ -11031,6 +14906,11 @@
       </c>
     </row>
     <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B809" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -11044,6 +14924,11 @@
       </c>
     </row>
     <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B810" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -11057,6 +14942,11 @@
       </c>
     </row>
     <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B811" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -11070,6 +14960,11 @@
       </c>
     </row>
     <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B812" t="inlineStr">
         <is>
           <t>Total</t>
